--- a/medicine/Sexualité et sexologie/French_Lover/French_Lover.xlsx
+++ b/medicine/Sexualité et sexologie/French_Lover/French_Lover.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme "French lover" est un stéréotype culturel qui fait référence aux hommes français, réputés pour leur charme, leur élégance et leur romantisme. Ce concept a une longue histoire et a influencé la manière dont les hommes français sont perçus à travers le monde.  
 Le French Lover est une réputation que l'on donne aux Français. Cette réputation veut qu'ils soient le peuple à avoir le plus de rapports sexuels dans le monde. Cette réputation leur a été donnée notamment par les Américains à partir de la fin du XIXe siècle.  
@@ -513,7 +525,9 @@
           <t>Représentations dans la culture populaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le "French lover" est devenu un archétype récurrent dans la culture populaire mondiale. Des films iconiques comme "Le Fabuleux Destin d'Amélie Poulain" ou "Le Héros de la famille" ont présenté des personnages masculins français charismatiques et séduisants. Dans la musique, des chansons telles que "La Vie en Rose" d'Édith Piaf ont renforcé cette image romantique.
 </t>
@@ -544,7 +558,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'origine du stéréotype du "French lover" remonte à plusieurs siècles. Il trouve ses racines dans la riche histoire culturelle de la France, marquée par des figures emblématiques telles que les écrivains et poètes français du XIXe siècle. Des œuvres littéraires comme "Cyrano de Bergerac" d'Edmond Rostand ou "Le Rouge et le Noir" de Stendhal ont contribué à façonner l'image du Français romantique et passionné.
 </t>
@@ -575,7 +591,9 @@
           <t>Romans</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Taslima Nasrin, French Lover, Penguin books, 2018  (ISBN 9780143028109)
 "Cyrano de Bergerac" d'Edmond Rostand
@@ -608,7 +626,9 @@
           <t>Films</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>French Lover, réalisé par Richard Marquand, sorti en 1984</t>
         </is>
